--- a/Assets/DataTable/常量表.xlsx
+++ b/Assets/DataTable/常量表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>ALL</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>玩家移动速度</t>
+  </si>
+  <si>
+    <t>玩家发现范围</t>
   </si>
   <si>
     <t>采集奇遇触发除率</t>
@@ -1062,19 +1065,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.2222222222222" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="17.2222222222222" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16383" width="17.2222222222222" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="17.2222222222222" style="1"/>
+    <col min="1" max="16384" width="17.2222222222222" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1090,15 +1092,19 @@
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1112,10 +1118,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1131,8 +1140,11 @@
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>50</v>
       </c>
@@ -1146,29 +1158,35 @@
         <v>1</v>
       </c>
       <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/DataTable/常量表.xlsx
+++ b/Assets/DataTable/常量表.xlsx
@@ -19,7 +19,7 @@
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0">
+    <comment ref="K4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>ALL</t>
   </si>
@@ -48,6 +48,18 @@
     <t>float</t>
   </si>
   <si>
+    <t>玩家初始力量</t>
+  </si>
+  <si>
+    <t>玩家初始敏捷</t>
+  </si>
+  <si>
+    <t>玩家初始智力</t>
+  </si>
+  <si>
+    <t>玩家初始幸运</t>
+  </si>
+  <si>
     <t>随机事件密度</t>
   </si>
   <si>
@@ -55,6 +67,9 @@
   </si>
   <si>
     <t>特殊采集触发率</t>
+  </si>
+  <si>
+    <t>幸运除率</t>
   </si>
   <si>
     <t>玩家移动速度</t>
@@ -1065,18 +1080,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.2222222222222" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="17.2222222222222" defaultRowHeight="15.6" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="16384" width="17.2222222222222" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1095,36 +1110,71 @@
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,50 +1193,95 @@
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
         <v>50</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
       </c>
       <c r="F5" s="4">
         <v>10</v>
       </c>
+      <c r="G5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:11">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:11">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:11">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
